--- a/Main Assesment/log_data.xlsx
+++ b/Main Assesment/log_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,21 @@
           <t>df12_bc</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>df13_bc</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>df14_bc</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>df15_bc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +566,15 @@
       <c r="O2" t="n">
         <v>4.894597791843318</v>
       </c>
+      <c r="P2" t="n">
+        <v>4.887087469917041</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.890698303025904</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.886202274786553</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -598,6 +622,15 @@
       <c r="O3" t="n">
         <v>4.484771255684245</v>
       </c>
+      <c r="P3" t="n">
+        <v>4.586107459312206</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.609434320331633</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.593907427862705</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -645,6 +678,15 @@
       <c r="O4" t="n">
         <v>4.320122908386545</v>
       </c>
+      <c r="P4" t="n">
+        <v>4.341795462218003</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.340218480906978</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.345314905652313</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -692,6 +734,15 @@
       <c r="O5" t="n">
         <v>4.074793592060037</v>
       </c>
+      <c r="P5" t="n">
+        <v>4.074999186064199</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.053568189775318</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4.075031158608065</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -739,6 +790,15 @@
       <c r="O6" t="n">
         <v>3.967939740875983</v>
       </c>
+      <c r="P6" t="n">
+        <v>3.808109648240035</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.788936901245525</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.800906010254317</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -786,6 +846,15 @@
       <c r="O7" t="n">
         <v>3.846445362931488</v>
       </c>
+      <c r="P7" t="n">
+        <v>3.529959424624669</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.488339157927501</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.549003262025788</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -833,6 +902,15 @@
       <c r="O8" t="n">
         <v>3.647175065454626</v>
       </c>
+      <c r="P8" t="n">
+        <v>3.27943878828702</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.193437678614496</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.277379974667255</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -880,6 +958,15 @@
       <c r="O9" t="n">
         <v>3.464806136122863</v>
       </c>
+      <c r="P9" t="n">
+        <v>3.028266163475984</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.899683738300032</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.01346923230917</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -927,6 +1014,15 @@
       <c r="O10" t="n">
         <v>3.258427746146739</v>
       </c>
+      <c r="P10" t="n">
+        <v>2.759290033024304</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.600836817201567</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.751567767657581</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -974,6 +1070,15 @@
       <c r="O11" t="n">
         <v>3.096214585346405</v>
       </c>
+      <c r="P11" t="n">
+        <v>2.511047375192533</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.315445518224584</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.466125870418199</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1020,6 +1125,15 @@
       </c>
       <c r="O12" t="n">
         <v>2.972607774988264</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.256777860100623</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.045322978786658</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.209849989092136</v>
       </c>
     </row>
   </sheetData>

--- a/Main Assesment/log_data.xlsx
+++ b/Main Assesment/log_data.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Row</t>
+          <t>Column</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -549,7 +549,7 @@
         <v>4.902423784268933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.896012669387736</v>
+        <v>4.844860156132717</v>
       </c>
       <c r="K2" t="n">
         <v>4.891525610581914</v>
@@ -605,7 +605,7 @@
         <v>4.568985973473215</v>
       </c>
       <c r="J3" t="n">
-        <v>4.635378176298068</v>
+        <v>4.584225672555992</v>
       </c>
       <c r="K3" t="n">
         <v>4.618254729860937</v>
@@ -661,7 +661,7 @@
         <v>4.351610320263888</v>
       </c>
       <c r="J4" t="n">
-        <v>4.343388897462354</v>
+        <v>4.292236403526178</v>
       </c>
       <c r="K4" t="n">
         <v>4.323661959102582</v>
@@ -717,7 +717,7 @@
         <v>4.115023568084337</v>
       </c>
       <c r="J5" t="n">
-        <v>4.047153131018448</v>
+        <v>3.996000688478106</v>
       </c>
       <c r="K5" t="n">
         <v>4.039458736180293</v>
@@ -773,7 +773,7 @@
         <v>3.900203213016893</v>
       </c>
       <c r="J6" t="n">
-        <v>3.744586326248927</v>
+        <v>3.69343394498344</v>
       </c>
       <c r="K6" t="n">
         <v>3.759412857870711</v>
@@ -829,7 +829,7 @@
         <v>3.669247127457002</v>
       </c>
       <c r="J7" t="n">
-        <v>3.440220116170398</v>
+        <v>3.389067992410719</v>
       </c>
       <c r="K7" t="n">
         <v>3.475653031821076</v>
@@ -885,7 +885,7 @@
         <v>3.480671537492222</v>
       </c>
       <c r="J8" t="n">
-        <v>3.14050804303818</v>
+        <v>3.089356884241885</v>
       </c>
       <c r="K8" t="n">
         <v>3.202964853101843</v>
@@ -941,7 +941,7 @@
         <v>3.303654957061804</v>
       </c>
       <c r="J9" t="n">
-        <v>2.850952399793493</v>
+        <v>2.799802626185456</v>
       </c>
       <c r="K9" t="n">
         <v>2.922141336207956</v>
@@ -997,7 +997,7 @@
         <v>3.113567357830259</v>
       </c>
       <c r="J10" t="n">
-        <v>2.561846442129789</v>
+        <v>2.510702835947995</v>
       </c>
       <c r="K10" t="n">
         <v>2.649943029210496</v>
@@ -1053,7 +1053,7 @@
         <v>2.957307918135369</v>
       </c>
       <c r="J11" t="n">
-        <v>2.281885203706318</v>
+        <v>2.230745030236432</v>
       </c>
       <c r="K11" t="n">
         <v>2.374060626971853</v>
@@ -1109,7 +1109,7 @@
         <v>2.791427466819213</v>
       </c>
       <c r="J12" t="n">
-        <v>1.988447470680621</v>
+        <v>1.937362681470768</v>
       </c>
       <c r="K12" t="n">
         <v>2.101661168599057</v>
